--- a/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.0_2015.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9720" tabRatio="432"/>
   </bookViews>
@@ -31,7 +36,7 @@
     <definedName name="Sit_estrategia">Tablas!$G$9:$G$11</definedName>
     <definedName name="Tipo_Proyecto">Tablas!$G$20:$G$25</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -786,7 +791,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,6 +1042,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,7 +1638,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2024,6 +2035,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2407,7 +2424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2442,7 +2459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2656,7 +2673,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -2802,8 +2819,8 @@
       <c r="B11" s="119"/>
       <c r="C11" s="120"/>
       <c r="D11" s="109">
-        <f>AVERAGE(F15:F18)/4.5</f>
-        <v>0.30000000000000004</v>
+        <f>AVERAGE(F15:F25)/4.5</f>
+        <v>0.18383838383838386</v>
       </c>
       <c r="E11" s="110"/>
       <c r="F11" s="111"/>
@@ -2988,14 +3005,14 @@
         <v>38</v>
       </c>
       <c r="D18" s="84">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E18" s="85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="85">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G18" s="83" t="s">
         <v>106</v>
@@ -3056,14 +3073,14 @@
         <v>39</v>
       </c>
       <c r="D20" s="84">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="85">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G20" s="83" t="s">
         <v>108</v>
@@ -3124,14 +3141,14 @@
         <v>66</v>
       </c>
       <c r="D22" s="84">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="E22" s="85">
         <v>3</v>
       </c>
       <c r="F22" s="85">
         <f>D22*E22</f>
-        <v>2.7</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G22" s="83" t="s">
         <v>104</v>
@@ -3191,15 +3208,15 @@
       <c r="C24" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="84">
-        <v>0.3</v>
-      </c>
-      <c r="E24" s="85">
-        <v>4</v>
+      <c r="D24" s="138">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="139">
+        <v>3</v>
       </c>
       <c r="F24" s="85">
         <f>D24*E24</f>
-        <v>1.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G24" s="83" t="s">
         <v>106</v>
@@ -3211,7 +3228,7 @@
         <v>114</v>
       </c>
       <c r="J24" s="87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K24" s="82"/>
     </row>
@@ -3226,14 +3243,14 @@
         <v>36</v>
       </c>
       <c r="D25" s="84">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="E25" s="85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="85">
         <f>D25*E25</f>
-        <v>2.8</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G25" s="83" t="s">
         <v>106</v>
